--- a/Regresi Sensor MQ-3 dan Sensor PT100.xlsx
+++ b/Regresi Sensor MQ-3 dan Sensor PT100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S2 ITB\semester 4 (semester genap 2022-2023)\Tesis\WORK\implementasi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A349F-F220-45FF-86B3-B306E85C9883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954DB85-BFD2-4C22-8F94-E6522F48868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A3BAAF5-1620-4CA6-827E-CDAB1D02EC77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A3BAAF5-1620-4CA6-827E-CDAB1D02EC77}"/>
   </bookViews>
   <sheets>
     <sheet name="MQ-3" sheetId="1" r:id="rId1"/>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD5799-93FD-4FBE-A3D5-CECE5EEE6CC3}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C57EDB6-D748-4720-8AC2-8F674B0B3E45}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
